--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\CurriculamTrackerWebsite\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6810CB-878D-4455-B370-BBC553DC289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33791960-5460-41C5-A53E-1EBF0F853055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Login Datas</t>
   </si>
@@ -124,6 +124,52 @@
   </si>
   <si>
     <t>Govt</t>
+  </si>
+  <si>
+    <t>Admin Functionalities</t>
+  </si>
+  <si>
+    <t>SAAN</t>
+  </si>
+  <si>
+    <t>ICTAK</t>
+  </si>
+  <si>
+    <t>/////////////</t>
+  </si>
+  <si>
+    <t>SAJINSAMMMDJJDJKDKKJJDJJDJJJJJDHHDUUDUHSJJJSJSJSJSNSNSNJJDIIUCNNNSNJJKSKKSKKSJJJSJSSHSHSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>AI  SOFTWARE TESTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IS GOOD</t>
+  </si>
+  <si>
+    <t>NOT GOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>XXXXXXX</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ICT</t>
   </si>
 </sst>
 </file>
@@ -168,12 +214,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,12 +637,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -606,66 +653,168 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8.8888888888888806E+32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>200</v>
+      </c>
+      <c r="C35">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
